--- a/va_facility_data_2025-02-20/Chesapeake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chesapeake%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chesapeake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chesapeake%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra37e333a0c7543a29ba0ec0983baa55b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R58d701ff17bb4ba29a12bd201f4b446c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3a995dc8f8244befa643b0101b208fe6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R44bb1ef3312646f4a602eb69c351657e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4eb76ca9786249c8bbfae780c6b0cf0a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc0b70cdf8ba24a0da5ed628f6c302c6c"/>
   </x:sheets>
 </x:workbook>
 </file>
